--- a/doc/attribute.xlsx
+++ b/doc/attribute.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,22 +41,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵种ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +74,125 @@
   </si>
   <si>
     <t>skill03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位死亡增加SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击方式</t>
+  </si>
+  <si>
+    <t>移动范围</t>
+  </si>
+  <si>
+    <t>移动方式</t>
+  </si>
+  <si>
+    <t>atb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>Nyarlathotep</t>
+  </si>
+  <si>
+    <t>creature1</t>
+  </si>
+  <si>
+    <t>baseattack</t>
+  </si>
+  <si>
+    <t>basemove</t>
+  </si>
+  <si>
+    <t>Hounds of Tindalos</t>
+  </si>
+  <si>
+    <t>creature2</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,94 +561,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="12" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
